--- a/tests/assets/odk-example-form-1.xlsx
+++ b/tests/assets/odk-example-form-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Sites/holpa-platform/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B7737-FCCB-3542-B1B0-2D4DC1030A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B801C23B-ED1A-8F4F-A2C3-126FEA97F92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="321" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="321" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>type</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Quel âge avez-vous ?</t>
+  </si>
+  <si>
+    <t>filter1</t>
+  </si>
+  <si>
+    <t>filter2</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -450,8 +456,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -920,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="156" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="156" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -929,8 +933,8 @@
   <cols>
     <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
@@ -997,10 +1001,10 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1014,10 +1018,10 @@
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1031,10 +1035,10 @@
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1050,7 +1054,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="22"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="16"/>
@@ -1059,7 +1063,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="16"/>
@@ -1068,7 +1072,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="17"/>
       <c r="F7" s="16"/>
@@ -1077,7 +1081,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
       <c r="F8" s="16"/>
@@ -1086,7 +1090,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
@@ -1095,7 +1099,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17"/>
       <c r="F10" s="16"/>
@@ -1104,7 +1108,7 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
       <c r="F11" s="16"/>
@@ -1113,7 +1117,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17"/>
       <c r="F12" s="16"/>
@@ -1122,7 +1126,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
       <c r="F13" s="16"/>
@@ -1165,11 +1169,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="245" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="245" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1183,7 @@
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -1189,8 +1193,14 @@
       <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
@@ -1222,8 +1232,14 @@
       <c r="C6" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1233,8 +1249,14 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
@@ -1244,8 +1266,14 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>28</v>
       </c>
@@ -1255,8 +1283,14 @@
       <c r="C9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
@@ -1266,14 +1300,20 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>43</v>
       </c>
@@ -1284,7 +1324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
@@ -1295,7 +1335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
@@ -1306,7 +1346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>43</v>
       </c>
@@ -1376,7 +1416,7 @@
       </c>
       <c r="D2" s="19">
         <f ca="1">NOW()</f>
-        <v>45608.937544444445</v>
+        <v>45609.56917534722</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>

--- a/tests/assets/odk-example-form-1.xlsx
+++ b/tests/assets/odk-example-form-1.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Sites/holpa-platform/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B801C23B-ED1A-8F4F-A2C3-126FEA97F92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB81FD9B-2434-8C4F-A39B-C19E702624DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="321" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29860" yWindow="-28300" windowWidth="37580" windowHeight="28300" tabRatio="321" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$B$1:$O$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,15 +33,17 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
   <si>
     <t>type</t>
   </si>
@@ -43,105 +51,336 @@
     <t>name</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>These fields…</t>
+  </si>
+  <si>
+    <t>...are not shown…</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>they are collected...</t>
+  </si>
+  <si>
+    <t>...automatically...</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>na_note1</t>
+  </si>
+  <si>
+    <t>Swipe right to get to the first question</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>select_one yn</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>Do you drink coffee?</t>
+  </si>
+  <si>
+    <t>coffee_number</t>
+  </si>
+  <si>
+    <t>How many cups of coffee do you drink in a normal day?</t>
+  </si>
+  <si>
+    <t>${coffee}="1"</t>
+  </si>
+  <si>
+    <t>yn</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>select_multiple drinks</t>
+  </si>
+  <si>
+    <t>drinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following beverages do you drink at least once per month? </t>
+  </si>
+  <si>
+    <t>Select all that apply</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>gps</t>
+  </si>
+  <si>
+    <t>Please record your current location</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>photo_yn</t>
+  </si>
+  <si>
+    <t>Ask the respondent for permission.</t>
+  </si>
+  <si>
+    <t>Take a photo of the respondent</t>
+  </si>
+  <si>
+    <t>(Or yourself if you are completing it on your own)</t>
+  </si>
+  <si>
+    <t>${photo_yn}="1"</t>
+  </si>
+  <si>
+    <t>How old are you?</t>
+  </si>
+  <si>
+    <t>.&gt;15 and .&lt;150</t>
+  </si>
+  <si>
+    <t>You entered an invalid number. The respondent must be over 15 yrs old, and is almost certainly less than 150.</t>
+  </si>
+  <si>
+    <t>na_note2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for your time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swipe right to end the form and see the options for saving and finalising this instance. </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>This question is optional</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>drinks_rpt_grp</t>
+  </si>
+  <si>
+    <t>driinks_rpt</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>drink_id</t>
+  </si>
+  <si>
+    <t>drink_name</t>
+  </si>
+  <si>
+    <t>selected-at(${drinks},position(..)-1)</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${drink_id}, '${drinks}')</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Very bad</t>
+  </si>
+  <si>
+    <t>very_bad</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>very_good</t>
+  </si>
+  <si>
+    <t>why_drink</t>
+  </si>
+  <si>
+    <t>You said the tast of ${drink_name} was bad. Could you briefly say why you still drink it?</t>
+  </si>
+  <si>
+    <t>i.e. Do you like other aspects of the drink, or do you find it useful in some way?</t>
+  </si>
+  <si>
+    <t>drinks_rpt</t>
+  </si>
+  <si>
+    <t>Overall, how do you find the taste of ${drink_name}</t>
+  </si>
+  <si>
+    <t>.&gt;=0</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>todaydate</t>
+  </si>
+  <si>
+    <t>name_of_person</t>
+  </si>
+  <si>
+    <t>drink_lk</t>
+  </si>
+  <si>
+    <t>${drink_lk} = 'very_bad' or ${drink_lk} = 'bad'</t>
+  </si>
+  <si>
+    <t>lk</t>
+  </si>
+  <si>
+    <t>select_one lk</t>
+  </si>
+  <si>
+    <t>count-selected(${drinks})</t>
+  </si>
+  <si>
+    <t>Can I take a photo?</t>
+  </si>
+  <si>
+    <t>count-selected(${drinks}) &gt;= position(..)</t>
+  </si>
+  <si>
     <t>label::English (en)</t>
   </si>
   <si>
     <t>hint::English (en)</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
     <t>constraint_message::English (en)</t>
   </si>
   <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
-    <t>media::image</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>na_note1</t>
+    <t>coffee.png</t>
+  </si>
+  <si>
+    <t>English (en)</t>
+  </si>
+  <si>
+    <t>another_example_2</t>
+  </si>
+  <si>
+    <t>This Survey is another example 2</t>
   </si>
   <si>
     <t>This is the first example fom for the workshop on 14th November 2017. WITH AN EDIT</t>
   </si>
   <si>
-    <t>Swipe right to get to the first question</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>name_of_person</t>
-  </si>
-  <si>
-    <t>What is your name?</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
-    <t>How old are you?</t>
-  </si>
-  <si>
-    <t>This question is optional</t>
-  </si>
-  <si>
-    <t>.&gt;15 and .&lt;150</t>
-  </si>
-  <si>
-    <t>You entered an invalid number. The respondent must be over 15 yrs old, and is almost certainly less than 150.</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>yn</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>unique identifier for the device used for data collection</t>
+  </si>
+  <si>
+    <t>Black tea</t>
   </si>
   <si>
     <t>black_tea</t>
   </si>
   <si>
-    <t>Black tea</t>
-  </si>
-  <si>
     <t>green_tea</t>
   </si>
   <si>
@@ -154,85 +393,49 @@
     <t>Coca-cola</t>
   </si>
   <si>
+    <t>Diet coke</t>
+  </si>
+  <si>
     <t>diet_cola</t>
   </si>
   <si>
-    <t>Diet coke</t>
-  </si>
-  <si>
     <t>juice</t>
   </si>
   <si>
     <t>Fruit juice (any kind)</t>
   </si>
   <si>
-    <t>lk</t>
-  </si>
-  <si>
-    <t>very_good</t>
-  </si>
-  <si>
-    <t>Very good</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>very_bad</t>
-  </si>
-  <si>
-    <t>Very bad</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t>asetaset2123123123123</t>
-  </si>
-  <si>
-    <t>English (en)</t>
-  </si>
-  <si>
-    <t>label::French (fr)</t>
-  </si>
-  <si>
-    <t>Voici le premier exemple de formulaire pour l'atelier du 14 novembre 2017. AVEC UNE MODIFICATION </t>
-  </si>
-  <si>
-    <t>Quel est votre nom ? </t>
-  </si>
-  <si>
-    <t>Quel âge avez-vous ?</t>
-  </si>
-  <si>
-    <t>filter1</t>
+    <t>drink_comment_rpt</t>
+  </si>
+  <si>
+    <t>drink_comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a comment about this drink. </t>
+  </si>
+  <si>
+    <t>Drinks Information</t>
+  </si>
+  <si>
+    <t>Drink Comments</t>
+  </si>
+  <si>
+    <t>This is just so we can test nested repeat groups and doesn't really make sense as a question. Please add multiple comments if you can.</t>
+  </si>
+  <si>
+    <t>localisable</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are outdoors, you should aim for an accuracy of 5-8 metres. If indoors, aim for about 20-30 metres. NOTE - this may take a couple of minutes. </t>
   </si>
   <si>
     <t>filter2</t>
@@ -242,16 +445,47 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,22 +493,12 @@
     <font>
       <u/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,10 +507,43 @@
       <i/>
       <u/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -296,17 +553,21 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +576,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8DB4E3"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -329,8 +596,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -339,36 +646,18 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -377,91 +666,169 @@
     </border>
     <border>
       <left style="double">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="47">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 2 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 3" xfId="41" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 5" xfId="43" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -623,7 +990,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -780,20 +1147,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -915,471 +1278,885 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="156" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1"/>
+    <col min="2" max="2" width="35.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="12" customWidth="1"/>
     <col min="6" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
     <col min="9" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="24" style="4" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" style="1"/>
+    <col min="16" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="H2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" ht="35" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="H5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="N9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="C12" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="M12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="I13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="40" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C26" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:E6">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B11:E22">
     <cfRule type="expression" dxfId="8" priority="1">
-      <formula>NOT(ISERROR(SEARCH("Begin Repeat",A5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Begin Repeat",B11)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="2">
-      <formula>NOT(ISERROR(SEARCH("Begin Group",A5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Begin Group",B11)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="3">
-      <formula>$A5 = "calculate"</formula>
+      <formula>$B11 = "calculate"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>$A5 = "begin group"</formula>
+      <formula>$B11 = "begin group"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$A5 = "end group"</formula>
+      <formula>$B11 = "end group"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$A5 = "begin repeat"</formula>
+      <formula>$B11 = "begin repeat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$A5 = "end repeat"</formula>
+      <formula>$B11 = "end repeat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$A5 = "note"</formula>
+      <formula>$B11 = "note"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$A5 = "begin repeat"</formula>
+      <formula>$B11 = "begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="245" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
+      <c r="D1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
+      <c r="D3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
+      <c r="D4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
+      <c r="C10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>45</v>
+      <c r="B13" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>47</v>
+      <c r="B14" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
+      <c r="B15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
+      <c r="B16" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,43 +2164,42 @@
     <col min="1" max="1" width="44.6640625" customWidth="1"/>
     <col min="2" max="2" width="48.6640625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19">
+        <v>104</v>
+      </c>
+      <c r="D2" s="27">
         <f ca="1">NOW()</f>
-        <v>45609.56917534722</v>
+        <v>45660.698740277781</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>